--- a/User_Data/Watchlists/aus_pop/aus_pop.xlsx
+++ b/User_Data/Watchlists/aus_pop/aus_pop.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,6 +1089,138 @@
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>A2325981V</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A2325981V</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Index Numbers ;  Housing ;  Australia ;</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>A2325946L</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A2325946L</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Index Numbers ;  Housing ;  Melbourne ;</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>A2060825C</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A2060825C</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Estimated Resident Population ;  Male ;  New South Wales ;</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>A2060834F</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>A2060834F</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Estimated Resident Population ;  Female ;  New South Wales ;</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>A2060833C</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>A2060833C</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Estimated Resident Population ;  Female ;  Australia ;</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>A2060843J</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A2060843J</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Estimated Resident Population ;  Persons ;  New South Wales ;</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>abs_series</t>
         </is>
@@ -1105,7 +1237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,6 +1391,36 @@
           <t>A2326391L</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A2325946L</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A2325981V</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>A2060825C</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>A2060834F</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>A2060833C</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>A2060843J</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1407,6 +1569,36 @@
         </is>
       </c>
       <c r="AD2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1447,6 +1639,12 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1483,6 +1681,12 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1631,6 +1835,36 @@
         </is>
       </c>
       <c r="AD5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1671,6 +1905,12 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1707,6 +1947,12 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1855,6 +2101,36 @@
         </is>
       </c>
       <c r="AD8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
         <is>
           <t>abs_series</t>
         </is>
@@ -1895,6 +2171,12 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1931,6 +2213,12 @@
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1967,6 +2255,12 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2003,6 +2297,12 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2039,6 +2339,12 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2075,6 +2381,12 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2111,6 +2423,12 @@
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2147,6 +2465,12 @@
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2299,6 +2623,36 @@
           <t>A2326391L</t>
         </is>
       </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>A2325946L</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>A2325981V</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>A2060825C</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>A2060834F</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>A2060833C</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>A2060843J</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2449,6 +2803,36 @@
       <c r="AD18" t="inlineStr">
         <is>
           <t>A2326391L</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
+        <is>
+          <t>A2325946L</t>
+        </is>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>A2325981V</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>A2060825C</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>A2060834F</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>A2060833C</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>A2060843J</t>
         </is>
       </c>
     </row>
@@ -2487,6 +2871,12 @@
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/User_Data/Watchlists/aus_pop/aus_pop.xlsx
+++ b/User_Data/Watchlists/aus_pop/aus_pop.xlsx
@@ -997,7 +997,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Estimated Resident Population ;  Persons ;  Australia ;</t>
+          <t>Error_A2060842F</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Number of movements ;  Permanent and Long-term Departures ;</t>
+          <t>Error_A85232558J,340102</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Number of movements ;  Permanent and Long-term Arrivals ;</t>
+          <t>Error_A85232568L,340101</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">

--- a/User_Data/Watchlists/aus_pop/aus_pop.xlsx
+++ b/User_Data/Watchlists/aus_pop/aus_pop.xlsx
@@ -997,7 +997,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Error_A2060842F</t>
+          <t>Estimated Resident Population ;  Persons ;  Australia ;</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Error_A85232558J,340102</t>
+          <t>Number of movements ;  Permanent and Long-term Departures ;</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Error_A85232568L,340101</t>
+          <t>Number of movements ;  Permanent and Long-term Arrivals ;</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">

--- a/User_Data/Watchlists/aus_pop/aus_pop.xlsx
+++ b/User_Data/Watchlists/aus_pop/aus_pop.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,6 +1045,50 @@
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>A2325941A</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A2325941A</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Index Numbers ;  Housing ;  Sydney ;</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>A2326391L</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A2326391L</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Index Numbers ;  Rents ;  Sydney ;1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>abs_series</t>
         </is>
@@ -1061,7 +1105,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,6 +1249,16 @@
           <t>A85232568L,340101</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A2325941A</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>A2326391L</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1343,6 +1397,16 @@
         </is>
       </c>
       <c r="AB2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1381,6 +1445,8 @@
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1415,6 +1481,8 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1553,6 +1621,16 @@
         </is>
       </c>
       <c r="AB5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
@@ -1591,6 +1669,8 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1625,6 +1705,8 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1763,6 +1845,16 @@
         </is>
       </c>
       <c r="AB8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>abs_series</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
         <is>
           <t>abs_series</t>
         </is>
@@ -1801,6 +1893,8 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1835,6 +1929,8 @@
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1869,6 +1965,8 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1903,6 +2001,8 @@
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1937,6 +2037,8 @@
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1971,6 +2073,8 @@
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2005,6 +2109,8 @@
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2039,6 +2145,8 @@
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2181,6 +2289,16 @@
           <t>A85232568L,340101</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>A2325941A</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>A2326391L</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2321,6 +2439,16 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>A85232568L,340101</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>A2325941A</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>A2326391L</t>
         </is>
       </c>
     </row>
@@ -2357,6 +2485,8 @@
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
